--- a/Jogos_do_Dia/2023-03-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -760,13 +760,13 @@
         <v>66</v>
       </c>
       <c r="F2">
-        <v>2.48</v>
+        <v>2.85</v>
       </c>
       <c r="G2">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
       <c r="H2">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="I2">
         <v>1.11</v>
@@ -781,10 +781,10 @@
         <v>2.45</v>
       </c>
       <c r="M2">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="O2">
         <v>1.56</v>
@@ -864,13 +864,13 @@
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="G3">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="N3">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -968,52 +968,52 @@
         <v>68</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V4">
         <v>2.17</v>
@@ -1072,31 +1072,31 @@
         <v>69</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="V5">
         <v>0.83</v>
@@ -1176,13 +1176,13 @@
         <v>70</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1280,13 +1280,13 @@
         <v>71</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1298,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1384,52 +1384,52 @@
         <v>72</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
         <v>1.33</v>
@@ -1488,52 +1488,52 @@
         <v>73</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V9">
         <v>1.83</v>
@@ -1592,52 +1592,52 @@
         <v>74</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V10">
         <v>1.75</v>
@@ -1696,49 +1696,49 @@
         <v>75</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1800,37 +1800,37 @@
         <v>76</v>
       </c>
       <c r="F12">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H12">
-        <v>2.74</v>
+        <v>3.6</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N12">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="Q12">
         <v>1.9</v>
@@ -1839,13 +1839,13 @@
         <v>1.82</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V12">
         <v>2.08</v>
@@ -1904,10 +1904,10 @@
         <v>77</v>
       </c>
       <c r="F13">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="G13">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="H13">
         <v>2.9</v>
@@ -1925,10 +1925,10 @@
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="N13">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -2008,13 +2008,13 @@
         <v>78</v>
       </c>
       <c r="F14">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="G14">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="H14">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="I14">
         <v>1.08</v>
@@ -2029,7 +2029,7 @@
         <v>2.25</v>
       </c>
       <c r="M14">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="N14">
         <v>1.36</v>
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="F16">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="G16">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="H16">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="I16">
         <v>1.06</v>
@@ -2237,10 +2237,10 @@
         <v>2.4</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N16">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="O16">
         <v>1.54</v>
@@ -2320,13 +2320,13 @@
         <v>81</v>
       </c>
       <c r="F17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="G17">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H17">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>1.04</v>
@@ -2341,10 +2341,10 @@
         <v>2.9</v>
       </c>
       <c r="M17">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O17">
         <v>1.46</v>
@@ -2424,13 +2424,13 @@
         <v>82</v>
       </c>
       <c r="F18">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H18">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I18">
         <v>1.08</v>
@@ -2445,10 +2445,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O18">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-03-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>League</t>
   </si>
@@ -145,12 +145,15 @@
     <t>Uruguay Primera División</t>
   </si>
   <si>
+    <t>Brazil Copa do Nordeste</t>
+  </si>
+  <si>
+    <t>Colombia Categoria Primera B</t>
+  </si>
+  <si>
     <t>Brazil Campeonato Brasileiro Women</t>
   </si>
   <si>
-    <t>Colombia Categoria Primera B</t>
-  </si>
-  <si>
     <t>Brazil Carioca 1</t>
   </si>
   <si>
@@ -178,12 +181,12 @@
     <t>Radnički Novi Beograd</t>
   </si>
   <si>
+    <t>Mačva Šabac</t>
+  </si>
+  <si>
     <t>Sloboda Užice</t>
   </si>
   <si>
-    <t>Mačva Šabac</t>
-  </si>
-  <si>
     <t>Martigues</t>
   </si>
   <si>
@@ -205,12 +208,15 @@
     <t>Torque</t>
   </si>
   <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Universitario Popayán</t>
+  </si>
+  <si>
     <t>Santos</t>
   </si>
   <si>
-    <t>Universitario Popayán</t>
-  </si>
-  <si>
     <t>Botafogo</t>
   </si>
   <si>
@@ -238,12 +244,12 @@
     <t>Jedinstvo Ub</t>
   </si>
   <si>
+    <t>Železničar Pančevo</t>
+  </si>
+  <si>
     <t>Grafičar</t>
   </si>
   <si>
-    <t>Železničar Pančevo</t>
-  </si>
-  <si>
     <t>Le Mans</t>
   </si>
   <si>
@@ -265,10 +271,13 @@
     <t>Cerro Largo</t>
   </si>
   <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Atlético</t>
+  </si>
+  <si>
     <t>Palmeiras Women</t>
-  </si>
-  <si>
-    <t>Atlético</t>
   </si>
   <si>
     <t>Portuguesa RJ</t>
@@ -633,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>2.85</v>
@@ -808,10 +817,10 @@
         <v>1.45</v>
       </c>
       <c r="V2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="X2">
         <v>2.18</v>
@@ -858,19 +867,19 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G3">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -885,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -962,19 +971,19 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="G4">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="H4">
-        <v>3.57</v>
+        <v>3.85</v>
       </c>
       <c r="I4">
         <v>1.02</v>
@@ -1066,19 +1075,19 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>5.13</v>
+        <v>5.7</v>
       </c>
       <c r="G5">
-        <v>3.41</v>
+        <v>3.65</v>
       </c>
       <c r="H5">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="I5">
         <v>1.03</v>
@@ -1099,16 +1108,16 @@
         <v>1.6</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S5">
         <v>2.1</v>
@@ -1170,37 +1179,37 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="G6">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="H6">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K6">
         <v>1.28</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N6">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="O6">
         <v>1.39</v>
@@ -1209,19 +1218,19 @@
         <v>2.52</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S6">
         <v>1.07</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="V6">
         <v>2.17</v>
@@ -1274,37 +1283,37 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="G7">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H7">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L7">
         <v>2.55</v>
       </c>
       <c r="M7">
-        <v>2.34</v>
+        <v>2.43</v>
       </c>
       <c r="N7">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
         <v>1.51</v>
@@ -1313,19 +1322,19 @@
         <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V7">
         <v>1.75</v>
@@ -1378,19 +1387,19 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="G8">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="H8">
-        <v>4.19</v>
+        <v>4.3</v>
       </c>
       <c r="I8">
         <v>1.12</v>
@@ -1399,16 +1408,16 @@
         <v>5.75</v>
       </c>
       <c r="K8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M8">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="N8">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="O8">
         <v>1.64</v>
@@ -1482,19 +1491,19 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="G9">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="H9">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="I9">
         <v>1.06</v>
@@ -1586,73 +1595,73 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10">
-        <v>2.9</v>
+        <v>3.83</v>
       </c>
       <c r="G10">
-        <v>2.9</v>
+        <v>3.07</v>
       </c>
       <c r="H10">
-        <v>2.19</v>
+        <v>1.98</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J10">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="K10">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="L10">
-        <v>3.05</v>
+        <v>2.15</v>
       </c>
       <c r="M10">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="N10">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="O10">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="P10">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="Q10">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="R10">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="S10">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="T10">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U10">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V10">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X10">
+        <v>1.79</v>
+      </c>
+      <c r="Y10">
         <v>1.48</v>
       </c>
-      <c r="Y10">
-        <v>1.86</v>
-      </c>
       <c r="Z10">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1690,73 +1699,73 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>3.58</v>
+        <v>2.57</v>
       </c>
       <c r="G11">
-        <v>2.89</v>
+        <v>3.2</v>
       </c>
       <c r="H11">
-        <v>1.91</v>
+        <v>2.39</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J11">
-        <v>5.8</v>
+        <v>10.5</v>
       </c>
       <c r="K11">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="M11">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="N11">
+        <v>1.66</v>
+      </c>
+      <c r="O11">
+        <v>1.43</v>
+      </c>
+      <c r="P11">
+        <v>2.65</v>
+      </c>
+      <c r="Q11">
+        <v>1.83</v>
+      </c>
+      <c r="R11">
+        <v>1.87</v>
+      </c>
+      <c r="S11">
+        <v>1.72</v>
+      </c>
+      <c r="T11">
+        <v>1.25</v>
+      </c>
+      <c r="U11">
+        <v>1.2</v>
+      </c>
+      <c r="V11">
+        <v>1.75</v>
+      </c>
+      <c r="W11">
+        <v>1.5</v>
+      </c>
+      <c r="X11">
         <v>1.48</v>
       </c>
-      <c r="O11">
-        <v>1.64</v>
-      </c>
-      <c r="P11">
-        <v>2.15</v>
-      </c>
-      <c r="Q11">
-        <v>2.25</v>
-      </c>
-      <c r="R11">
-        <v>1.57</v>
-      </c>
-      <c r="S11">
-        <v>1.63</v>
-      </c>
-      <c r="T11">
-        <v>1.33</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>1.58</v>
-      </c>
-      <c r="W11">
-        <v>1.58</v>
-      </c>
-      <c r="X11">
-        <v>1.79</v>
-      </c>
       <c r="Y11">
-        <v>1.48</v>
+        <v>1.86</v>
       </c>
       <c r="Z11">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1794,19 +1803,19 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="G12">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H12">
-        <v>3.6</v>
+        <v>2.95</v>
       </c>
       <c r="I12">
         <v>1.08</v>
@@ -1821,10 +1830,10 @@
         <v>2.83</v>
       </c>
       <c r="M12">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="N12">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O12">
         <v>1.45</v>
@@ -1872,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1898,19 +1907,19 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="G13">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -1925,10 +1934,10 @@
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N13">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -2002,19 +2011,19 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>2.85</v>
+        <v>2.59</v>
       </c>
       <c r="G14">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="H14">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="I14">
         <v>1.08</v>
@@ -2023,13 +2032,13 @@
         <v>6.05</v>
       </c>
       <c r="K14">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="L14">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="M14">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="N14">
         <v>1.36</v>
@@ -2106,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>1.7</v>
@@ -2190,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG15">
         <v>1.8</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2210,19 +2219,19 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="G16">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H16">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I16">
         <v>1.06</v>
@@ -2237,10 +2246,10 @@
         <v>2.4</v>
       </c>
       <c r="M16">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O16">
         <v>1.54</v>
@@ -2314,19 +2323,19 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G17">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="I17">
         <v>1.04</v>
@@ -2341,10 +2350,10 @@
         <v>2.9</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="N17">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="O17">
         <v>1.46</v>
@@ -2418,19 +2427,19 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="G18">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H18">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="I18">
         <v>1.08</v>
@@ -2445,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="N18">
         <v>1.6</v>
@@ -2487,13 +2496,13 @@
         <v>2.39</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD18">
         <v>1.37</v>
@@ -2516,16 +2525,16 @@
         <v>43</v>
       </c>
       <c r="B19" s="2">
-        <v>45012.83333333334</v>
+        <v>45012.79166666666</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2576,19 +2585,19 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>1.75</v>
+        <v>2.44</v>
       </c>
       <c r="W19">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="X19">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="Y19">
-        <v>2.46</v>
+        <v>1.24</v>
       </c>
       <c r="Z19">
-        <v>4.71</v>
+        <v>3.33</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2626,10 +2635,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F20">
         <v>2.16</v>
@@ -2704,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2727,22 +2736,22 @@
         <v>45012.83333333334</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F21">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2757,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2784,42 +2793,146 @@
         <v>0</v>
       </c>
       <c r="V21">
+        <v>1.75</v>
+      </c>
+      <c r="W21">
+        <v>2.5</v>
+      </c>
+      <c r="X21">
+        <v>2.25</v>
+      </c>
+      <c r="Y21">
+        <v>2.46</v>
+      </c>
+      <c r="Z21">
+        <v>4.71</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45012.83333333334</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22">
+        <v>1.34</v>
+      </c>
+      <c r="G22">
+        <v>3.9</v>
+      </c>
+      <c r="H22">
+        <v>6.8</v>
+      </c>
+      <c r="I22">
+        <v>1.08</v>
+      </c>
+      <c r="J22">
+        <v>9.25</v>
+      </c>
+      <c r="K22">
+        <v>1.32</v>
+      </c>
+      <c r="L22">
+        <v>3.1</v>
+      </c>
+      <c r="M22">
+        <v>2.16</v>
+      </c>
+      <c r="N22">
+        <v>1.66</v>
+      </c>
+      <c r="O22">
+        <v>1.4</v>
+      </c>
+      <c r="P22">
+        <v>2.75</v>
+      </c>
+      <c r="Q22">
+        <v>2.5</v>
+      </c>
+      <c r="R22">
+        <v>1.47</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>1.67</v>
       </c>
-      <c r="W21">
+      <c r="W22">
         <v>1.17</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <v>1.37</v>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <v>1.18</v>
       </c>
-      <c r="Z21">
+      <c r="Z22">
         <v>2.55</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <v>0</v>
       </c>
     </row>
